--- a/biology/Zoologie/Amphipyra_pyramidea/Amphipyra_pyramidea.xlsx
+++ b/biology/Zoologie/Amphipyra_pyramidea/Amphipyra_pyramidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Noctuelle cuivrée ou la Pyramide, Amphipyra pyramidea, est une espèce de lépidoptères (papillons) de la famille des Noctuidae et de la sous-famille des Amphipyrinae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chenille
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition : Europe, toute la France métropolitaine.
 Habitat : divers lieux boisés, y compris dans les villes.</t>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce univoltine, les œufs sont pondus dans les arbres à feuilles caduques en automne. Ils éclosent au printemps. Les chenilles sont visibles en avril-mai, elles se nourrissent des chênes, du charme, des frênes... La nymphose se passe dans le sol en juin et l'émergence a lieu de juillet à septembre.
 </t>
@@ -606,26 +624,131 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Amphipyra pyramidea a été décrite par l'entomologiste suédois Carl von Linné en 1758, sous le nom initial de Phalaena pyramidea.
-Synonymie
-Phalaena pyramidea Linné, 1758 Protonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amphipyra_pyramidea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphipyra_pyramidea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phalaena pyramidea Linné, 1758 Protonyme
 Phalaena navicularis Geoffroy, 1785
-Amphipyra navicularis (Geoffroy, 1785)[1]
-Amphipyra pyramidea obscura Oberthur, 1880[2]
-Amphipyra pyramidea var. obliquilimbata Graeser, 1888[3]
+Amphipyra navicularis (Geoffroy, 1785)
+Amphipyra pyramidea obscura Oberthur, 1880
+Amphipyra pyramidea var. obliquilimbata Graeser, 1888
 Amphipyra yama Swinhoe 1918
-Amphipyra apyra Bryk, 1942[4]
-Amphipyra pyramidea cuprior Fleteche, 1968
-Noms vernaculaires
-Noctuelle cuivrée
-Noctuelle du noyer[5]
-Noctuelle pyramide[6]
-Pyramide.
-Taxinomie
-Il existe un sous-genre : Amphipyra (Amphipyra) ; le nom complet est Amphipyra (Amphipyra) pyramidea.
-Depuis 1967, cette espèce a été séparée de Amphipyra berbera Rungs, 1949[7] ou Amphipyra (Amphipyra) berbera Rungs, 1949[8].
+Amphipyra apyra Bryk, 1942
+Amphipyra pyramidea cuprior Fleteche, 1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amphipyra_pyramidea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphipyra_pyramidea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Noctuelle cuivrée
+Noctuelle du noyer
+Noctuelle pyramide
+Pyramide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amphipyra_pyramidea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphipyra_pyramidea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe un sous-genre : Amphipyra (Amphipyra) ; le nom complet est Amphipyra (Amphipyra) pyramidea.
+Depuis 1967, cette espèce a été séparée de Amphipyra berbera Rungs, 1949 ou Amphipyra (Amphipyra) berbera Rungs, 1949.
 </t>
         </is>
       </c>
